--- a/Взаимодействие компонент.xlsx
+++ b/Взаимодействие компонент.xlsx
@@ -617,7 +617,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -984,7 +984,7 @@
         <v>6</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>8</v>
@@ -1013,10 +1013,10 @@
         <v>4</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>8</v>
@@ -1062,7 +1062,7 @@
         <v>14</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>8</v>
@@ -1088,7 +1088,7 @@
         <v>7</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>8</v>
@@ -1117,10 +1117,10 @@
         <v>5</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1140,7 +1140,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>8</v>
@@ -1166,7 +1166,7 @@
         <v>13</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>8</v>
@@ -1192,7 +1192,7 @@
         <v>15</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>8</v>
@@ -1279,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1500,7 +1500,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">

--- a/Взаимодействие компонент.xlsx
+++ b/Взаимодействие компонент.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="21">
   <si>
     <t>Зона 1</t>
   </si>
@@ -79,18 +79,29 @@
   </si>
   <si>
     <t>Вторая матрица говорит какой сорт протона появляется при взаимодействии</t>
+  </si>
+  <si>
+    <t>Таблица взаимодействия из статьи Бера</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -304,42 +315,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -617,7 +631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -625,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1603,6 +1617,176 @@
         <v>5</v>
       </c>
     </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A71" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="26"/>
+      <c r="B73" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H73" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B77" s="2"/>
+    </row>
+    <row r="79" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A79" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="26"/>
+      <c r="B81" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
